--- a/MainTop/07.02.2025/макс месяц с 07.01.2025 по 07.02.2025/WB_поставка_поставка_макс_ВБ.xlsx
+++ b/MainTop/07.02.2025/макс месяц с 07.01.2025 по 07.02.2025/WB_поставка_поставка_макс_ВБ.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Max\Documents\GitHub\Ozon_upload\MainTop\07.02.2025\макс месяц с 07.01.2025 по 07.02.2025\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C07BB9B8-F68E-4535-858B-DB1B5E71BDD5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EA3B8473-F274-4589-A1DE-6E93B634CAD6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="57" uniqueCount="57">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="55" uniqueCount="55">
   <si>
     <t>баркод</t>
   </si>
@@ -106,16 +106,10 @@
     <t>OZN1425250629</t>
   </si>
   <si>
-    <t>OZN1489755095</t>
-  </si>
-  <si>
     <t>OZN1463877564</t>
   </si>
   <si>
     <t>OZN1489755059</t>
-  </si>
-  <si>
-    <t>OZN1489755015</t>
   </si>
   <si>
     <t>OZN1463874347</t>
@@ -553,10 +547,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:B56"/>
+  <dimension ref="A1:B54"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D13" sqref="D13"/>
+      <selection activeCell="C4" sqref="C4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -782,7 +776,7 @@
         <v>28</v>
       </c>
       <c r="B28">
-        <v>32</v>
+        <v>16</v>
       </c>
     </row>
     <row r="29" spans="1:2" x14ac:dyDescent="0.25">
@@ -790,7 +784,7 @@
         <v>29</v>
       </c>
       <c r="B29">
-        <v>16</v>
+        <v>10</v>
       </c>
     </row>
     <row r="30" spans="1:2" x14ac:dyDescent="0.25">
@@ -798,7 +792,7 @@
         <v>30</v>
       </c>
       <c r="B30">
-        <v>10</v>
+        <v>8</v>
       </c>
     </row>
     <row r="31" spans="1:2" x14ac:dyDescent="0.25">
@@ -806,7 +800,7 @@
         <v>31</v>
       </c>
       <c r="B31">
-        <v>10</v>
+        <v>6</v>
       </c>
     </row>
     <row r="32" spans="1:2" x14ac:dyDescent="0.25">
@@ -814,7 +808,7 @@
         <v>32</v>
       </c>
       <c r="B32">
-        <v>8</v>
+        <v>6</v>
       </c>
     </row>
     <row r="33" spans="1:2" x14ac:dyDescent="0.25">
@@ -822,7 +816,7 @@
         <v>33</v>
       </c>
       <c r="B33">
-        <v>6</v>
+        <v>4</v>
       </c>
     </row>
     <row r="34" spans="1:2" x14ac:dyDescent="0.25">
@@ -830,7 +824,7 @@
         <v>34</v>
       </c>
       <c r="B34">
-        <v>6</v>
+        <v>4</v>
       </c>
     </row>
     <row r="35" spans="1:2" x14ac:dyDescent="0.25">
@@ -854,7 +848,7 @@
         <v>37</v>
       </c>
       <c r="B37">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="38" spans="1:2" x14ac:dyDescent="0.25">
@@ -862,7 +856,7 @@
         <v>38</v>
       </c>
       <c r="B38">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="39" spans="1:2" x14ac:dyDescent="0.25">
@@ -990,22 +984,6 @@
         <v>54</v>
       </c>
       <c r="B54">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="55" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A55" t="s">
-        <v>55</v>
-      </c>
-      <c r="B55">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="56" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A56" t="s">
-        <v>56</v>
-      </c>
-      <c r="B56">
         <v>2</v>
       </c>
     </row>
